--- a/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.360487430045957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.625933314900071</v>
+        <v>1.62593331490007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.099498508405265</v>
@@ -649,7 +649,7 @@
         <v>5.874165604052466</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5955056837946263</v>
+        <v>0.5955056837946259</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.189472738415786</v>
+        <v>1.91675170626338</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.850191095889643</v>
+        <v>2.99391338383527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.72310137510642</v>
+        <v>2.715730664160758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08094244929150758</v>
+        <v>0.1310670376412875</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.71557653563642</v>
+        <v>0.6007228205536127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.590781012783516</v>
+        <v>1.922865288779505</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.787871641743932</v>
+        <v>1.725099359258591</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01768888029669232</v>
+        <v>0.01110858164127374</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.320759954654606</v>
+        <v>6.202628539114568</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.586674708122524</v>
+        <v>6.855515564524052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.539429228896516</v>
+        <v>6.363551229014548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.132737320365059</v>
+        <v>3.284488053062745</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.280339179575785</v>
+        <v>5.261162389193053</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15.27548763883356</v>
+        <v>15.89554966890968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20.29761676580574</v>
+        <v>25.85130031886818</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.606708062022151</v>
+        <v>1.690317413204947</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.230175312189463</v>
+        <v>1.224508668729088</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.855180068921745</v>
+        <v>3.686816401213478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6690300445822909</v>
+        <v>0.5962595648404044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.709614183064707</v>
+        <v>1.591228919967658</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3326580094861822</v>
+        <v>0.353077188416372</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.934556858094722</v>
+        <v>1.965979262507027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3604621074655606</v>
+        <v>0.2492533052777418</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7316587961052555</v>
+        <v>0.6436264077992706</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.08789151118588</v>
+        <v>5.135088146663993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.469354907611847</v>
+        <v>7.058436864584354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.2771144529892</v>
+        <v>3.326042918831182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.168668543480541</v>
+        <v>4.096569810421209</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.0556257516541</v>
+        <v>3.094784860620129</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>10.60019992008754</v>
+        <v>10.46524915180515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.309724472627116</v>
+        <v>4.472915328223977</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.665754494446751</v>
+        <v>3.681559017437992</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.457243217929229</v>
+        <v>1.470320014376372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.224807420138022</v>
+        <v>2.323430356373796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8395108458548126</v>
+        <v>0.8008456988130421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2570387749633762</v>
+        <v>0.2442565239295989</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4238235247209619</v>
+        <v>0.4816626643685015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5629934083457401</v>
+        <v>0.7459856177096731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2595218212592269</v>
+        <v>0.2705121242537421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04707616974789335</v>
+        <v>0.02130195333199519</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.690514692052733</v>
+        <v>5.691970093215968</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.404721905880854</v>
+        <v>6.564437827321312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.253125164227277</v>
+        <v>4.205666572401209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.930850539519039</v>
+        <v>3.885931626939007</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.123232756799189</v>
+        <v>6.414519720968638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.086665699032934</v>
+        <v>7.792781349527238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.357123822945542</v>
+        <v>4.552745071526196</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.36804575980442</v>
+        <v>2.212041161206547</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4130831873792305</v>
+        <v>0.5292770713765084</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.561444207341462</v>
+        <v>2.466873200390784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.858394770576561</v>
+        <v>1.745697169555314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.582134816918767</v>
+        <v>3.632280040582597</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1068791561221115</v>
+        <v>0.1375432328186725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9978838300355933</v>
+        <v>0.9858987547834196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7865973641655151</v>
+        <v>0.7657548357545221</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.308170252988885</v>
+        <v>1.27800732604038</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.584827388152824</v>
+        <v>3.666955439612621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.9531818411603</v>
+        <v>5.883144747108697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.987526106873992</v>
+        <v>4.999483977912396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.832294004018929</v>
+        <v>6.748857899613035</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.810082728059985</v>
+        <v>1.826712443977395</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.587593263506807</v>
+        <v>5.545318578543531</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.369263791748687</v>
+        <v>4.848809175888133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.837917116510204</v>
+        <v>4.643525108894259</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.87269678810577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.180543007946193</v>
+        <v>3.180543007946194</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.376907360033012</v>
@@ -1049,7 +1049,7 @@
         <v>2.249706295343539</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.457853599291178</v>
+        <v>1.457853599291179</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.211126767615859</v>
+        <v>2.173102469565743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.816693123672622</v>
+        <v>3.824292577811324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.140304209023484</v>
+        <v>2.057330158623405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.389180822683541</v>
+        <v>2.38780185369129</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8377779439290916</v>
+        <v>0.8438751673625086</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.278558596138256</v>
+        <v>2.260385596812485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.314083383765437</v>
+        <v>1.309197940912486</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.9152702916187836</v>
+        <v>0.9304390770652931</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.06033163925753</v>
+        <v>3.878063272834015</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.730598330145803</v>
+        <v>5.681895431504177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.711480436571282</v>
+        <v>3.722997565226859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.912307111556226</v>
+        <v>4.032059390923529</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.241371513236181</v>
+        <v>2.100665002654981</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.59022527895242</v>
+        <v>5.320766503302611</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.602444302661751</v>
+        <v>3.647390536646646</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.122590181670235</v>
+        <v>2.325676674789016</v>
       </c>
     </row>
     <row r="19">
